--- a/20210401health.xlsx
+++ b/20210401health.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakumasumitaka/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5401D938-24B3-5740-A228-68B7460B4E24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD5F9CA-2D5A-2944-9B95-866D2F4BE843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33480" yWindow="1760" windowWidth="28300" windowHeight="16940" xr2:uid="{8C5B8C8F-D7D6-1948-A5C7-CDBE371E92BB}"/>
   </bookViews>
@@ -421,442 +421,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F531F72F-1B2C-C340-B68E-F6DFD0060871}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
         <v>44287</v>
       </c>
+      <c r="B2">
+        <v>6120</v>
+      </c>
       <c r="C2">
-        <v>6120</v>
-      </c>
-      <c r="D2">
         <v>2500</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>44288</v>
       </c>
+      <c r="B3">
+        <v>5322</v>
+      </c>
       <c r="C3">
-        <v>5322</v>
-      </c>
-      <c r="D3">
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
         <v>44289</v>
       </c>
+      <c r="B4">
+        <v>6483</v>
+      </c>
       <c r="C4">
-        <v>6483</v>
-      </c>
-      <c r="D4">
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
         <v>44290</v>
       </c>
+      <c r="B5">
+        <v>8433</v>
+      </c>
       <c r="C5">
-        <v>8433</v>
-      </c>
-      <c r="D5">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
         <v>44291</v>
       </c>
+      <c r="B6">
+        <v>10022</v>
+      </c>
       <c r="C6">
-        <v>10022</v>
-      </c>
-      <c r="D6">
         <v>1900</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
         <v>44292</v>
       </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
       <c r="C7">
-        <v>10000</v>
-      </c>
-      <c r="D7">
         <v>1920</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
         <v>44293</v>
       </c>
+      <c r="B8">
+        <v>5553</v>
+      </c>
       <c r="C8">
-        <v>5553</v>
-      </c>
-      <c r="D8">
         <v>1890</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
         <v>44294</v>
       </c>
+      <c r="B9">
+        <v>8294</v>
+      </c>
       <c r="C9">
-        <v>8294</v>
-      </c>
-      <c r="D9">
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
         <v>44295</v>
       </c>
+      <c r="B10">
+        <v>6943</v>
+      </c>
       <c r="C10">
-        <v>6943</v>
-      </c>
-      <c r="D10">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
         <v>44296</v>
       </c>
+      <c r="B11">
+        <v>3835</v>
+      </c>
       <c r="C11">
-        <v>3835</v>
-      </c>
-      <c r="D11">
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>44297</v>
       </c>
+      <c r="B12">
+        <v>10200</v>
+      </c>
       <c r="C12">
-        <v>10200</v>
-      </c>
-      <c r="D12">
         <v>2460</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
         <v>44298</v>
       </c>
+      <c r="B13">
+        <v>15000</v>
+      </c>
       <c r="C13">
-        <v>15000</v>
-      </c>
-      <c r="D13">
         <v>2300</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
         <v>44299</v>
       </c>
+      <c r="B14">
+        <v>3455</v>
+      </c>
       <c r="C14">
-        <v>3455</v>
-      </c>
-      <c r="D14">
         <v>1900</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
         <v>44300</v>
       </c>
+      <c r="B15">
+        <v>7910</v>
+      </c>
       <c r="C15">
-        <v>7910</v>
-      </c>
-      <c r="D15">
         <v>2200</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
         <v>44301</v>
       </c>
+      <c r="B16">
+        <v>4601</v>
+      </c>
       <c r="C16">
-        <v>4601</v>
-      </c>
-      <c r="D16">
         <v>2250</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
         <v>44302</v>
       </c>
+      <c r="B17">
+        <v>5894</v>
+      </c>
       <c r="C17">
-        <v>5894</v>
-      </c>
-      <c r="D17">
         <v>2150</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
         <v>44303</v>
       </c>
+      <c r="B18">
+        <v>6031</v>
+      </c>
       <c r="C18">
-        <v>6031</v>
-      </c>
-      <c r="D18">
         <v>2090</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
         <v>44304</v>
       </c>
+      <c r="B19">
+        <v>6948</v>
+      </c>
       <c r="C19">
-        <v>6948</v>
-      </c>
-      <c r="D19">
         <v>2100</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
         <v>44305</v>
       </c>
+      <c r="B20">
+        <v>10566</v>
+      </c>
       <c r="C20">
-        <v>10566</v>
-      </c>
-      <c r="D20">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
         <v>44306</v>
       </c>
+      <c r="B21">
+        <v>14320</v>
+      </c>
       <c r="C21">
-        <v>14320</v>
-      </c>
-      <c r="D21">
         <v>1950</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
         <v>44307</v>
       </c>
+      <c r="B22">
+        <v>5830</v>
+      </c>
       <c r="C22">
-        <v>5830</v>
-      </c>
-      <c r="D22">
         <v>2310</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
         <v>44308</v>
       </c>
+      <c r="B23">
+        <v>4590</v>
+      </c>
       <c r="C23">
-        <v>4590</v>
-      </c>
-      <c r="D23">
         <v>1940</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1">
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
         <v>44309</v>
       </c>
+      <c r="B24">
+        <v>5394</v>
+      </c>
       <c r="C24">
-        <v>5394</v>
-      </c>
-      <c r="D24">
         <v>1890</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1">
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
         <v>44310</v>
       </c>
+      <c r="B25">
+        <v>9385</v>
+      </c>
       <c r="C25">
-        <v>9385</v>
-      </c>
-      <c r="D25">
         <v>1990</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1">
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
         <v>44311</v>
       </c>
+      <c r="B26">
+        <v>8540</v>
+      </c>
       <c r="C26">
-        <v>8540</v>
-      </c>
-      <c r="D26">
         <v>2440</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1">
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
         <v>44312</v>
       </c>
+      <c r="B27">
+        <v>9597</v>
+      </c>
       <c r="C27">
-        <v>9597</v>
-      </c>
-      <c r="D27">
         <v>2340</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1">
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
         <v>44313</v>
       </c>
+      <c r="B28">
+        <v>10043</v>
+      </c>
       <c r="C28">
-        <v>10043</v>
-      </c>
-      <c r="D28">
         <v>2330</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1">
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
         <v>44314</v>
       </c>
+      <c r="B29">
+        <v>5389</v>
+      </c>
       <c r="C29">
-        <v>5389</v>
-      </c>
-      <c r="D29">
         <v>2210</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1">
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
         <v>44315</v>
       </c>
+      <c r="B30">
+        <v>9845</v>
+      </c>
       <c r="C30">
-        <v>9845</v>
-      </c>
-      <c r="D30">
         <v>2100</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1">
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
         <v>44316</v>
       </c>
+      <c r="B31">
+        <v>9344</v>
+      </c>
       <c r="C31">
-        <v>9344</v>
-      </c>
-      <c r="D31">
         <v>2060</v>
       </c>
     </row>
